--- a/data/trans_dic/P62A$viudedad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 16,75</t>
+          <t>9,92; 16,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,23; 58,69</t>
+          <t>49,28; 58,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,81; 56,23</t>
+          <t>48,01; 56,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,28; 50,17</t>
+          <t>40,81; 51,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,05</t>
+          <t>4,41; 8,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,88; 28,71</t>
+          <t>22,97; 28,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,33; 28,99</t>
+          <t>23,52; 29,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,44; 25,51</t>
+          <t>19,63; 25,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,87</t>
+          <t>7,45; 11,04</t>
         </is>
       </c>
     </row>
@@ -874,52 +875,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,82</t>
+          <t>17,08; 24,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 49,2</t>
+          <t>28,64; 49,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 29,69</t>
+          <t>15,84; 29,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 30,7</t>
+          <t>19,15; 31,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,27</t>
+          <t>2,22; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,97</t>
+          <t>9,24; 18,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,75</t>
+          <t>6,17; 11,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,73</t>
+          <t>7,62; 12,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 17,3</t>
+          <t>6,45; 17,53</t>
         </is>
       </c>
     </row>
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 16,39</t>
+          <t>5,65; 16,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 28,79</t>
+          <t>5,54; 28,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 25,51</t>
+          <t>3,09; 28,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 19,92</t>
+          <t>3,71; 20,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,9</t>
+          <t>4,9; 14,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,79</t>
+          <t>2,06; 13,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,77</t>
+          <t>1,22; 11,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,05</t>
+          <t>1,64; 8,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 14,05</t>
+          <t>6,52; 13,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,64</t>
+          <t>14,02; 18,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,35; 53,77</t>
+          <t>44,97; 53,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 47,11</t>
+          <t>39,72; 47,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,19; 39,22</t>
+          <t>32,06; 39,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,86</t>
+          <t>3,42; 8,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,41; 23,81</t>
+          <t>19,62; 24,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,1; 22,25</t>
+          <t>18,25; 22,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,3</t>
+          <t>14,26; 18,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,82</t>
+          <t>7,46; 13,17</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de viudedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38170</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>244115</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>280459</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>194435</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22741</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>246141</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>283498</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194435</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60912</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10170</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1819</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29644; 50007</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>221683; 264990</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>257708; 304503</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>173642; 220302</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16662; 31334</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>220573; 273442</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>255355; 316408</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>170010; 221070</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50395; 74672</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80322</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32979</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37782</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63463</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31667</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32979</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37782</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64398</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>111989</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1914</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5048</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66984; 94802</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24346; 42006</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27024; 50856</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49280; 79870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10726; 60886</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23261; 45482</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27529; 51197</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49139; 82110</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56508; 153523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11112</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6411</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5153</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6568</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6411</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5153</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17680</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2110</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2234</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6117; 18190</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2285; 11837</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1101; 9977</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1960; 10782</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3624; 10740</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2094; 13696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>991; 9140</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2000; 10794</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11894; 25387</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>129604</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>283506</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>322294</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>263052</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60976</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>285531</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>325332</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>263986</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>190581</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6720</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12351</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6917</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>112096; 149063</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>259080; 307049</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>295134; 349169</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>235814; 291293</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32023; 83126</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>257740; 317638</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>294397; 364316</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>232831; 298327</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>129410; 228385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>